--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf8-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf8-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Fgf8</t>
+  </si>
+  <si>
+    <t>Fgfr3</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Fgf8</t>
-  </si>
-  <si>
-    <t>Fgfr3</t>
-  </si>
-  <si>
-    <t>FAPs</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2093803333333333</v>
+        <v>0.1008186666666667</v>
       </c>
       <c r="H2">
-        <v>0.6281409999999999</v>
+        <v>0.302456</v>
       </c>
       <c r="I2">
-        <v>0.4785017724587298</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5791826874314219</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.495057333333333</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N2">
-        <v>16.485172</v>
+        <v>6.992521</v>
       </c>
       <c r="O2">
-        <v>0.8161989011161211</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P2">
-        <v>0.8403205285996808</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q2">
-        <v>1.150556936139111</v>
+        <v>0.2349922146195556</v>
       </c>
       <c r="R2">
-        <v>10.355012425252</v>
+        <v>2.114929931576</v>
       </c>
       <c r="S2">
-        <v>0.3905526208629315</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="T2">
-        <v>0.4866991020581561</v>
+        <v>0.7003397275969581</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2093803333333333</v>
+        <v>0.1008186666666667</v>
       </c>
       <c r="H3">
-        <v>0.6281409999999999</v>
+        <v>0.302456</v>
       </c>
       <c r="I3">
-        <v>0.4785017724587298</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5791826874314219</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>1.972998</v>
       </c>
       <c r="O3">
-        <v>0.09768528951377062</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="P3">
-        <v>0.1005722428790014</v>
+        <v>0.1976066831789769</v>
       </c>
       <c r="Q3">
-        <v>0.137702326302</v>
+        <v>0.066305009232</v>
       </c>
       <c r="R3">
-        <v>1.239320936718</v>
+        <v>0.596745083088</v>
       </c>
       <c r="S3">
-        <v>0.04674258417548342</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="T3">
-        <v>0.05824970191166571</v>
+        <v>0.1976066831789769</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2093803333333333</v>
+        <v>0.1008186666666667</v>
       </c>
       <c r="H4">
-        <v>0.6281409999999999</v>
+        <v>0.302456</v>
       </c>
       <c r="I4">
-        <v>0.4785017724587298</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5791826874314219</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,214 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5797745</v>
+        <v>0.42828</v>
       </c>
       <c r="N4">
-        <v>1.159549</v>
+        <v>0.85656</v>
       </c>
       <c r="O4">
-        <v>0.08611580937010824</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="P4">
-        <v>0.0591072285213179</v>
+        <v>0.08578923067523865</v>
       </c>
       <c r="Q4">
-        <v>0.1213933780681666</v>
+        <v>0.04317861856</v>
       </c>
       <c r="R4">
-        <v>0.7283602684089999</v>
+        <v>0.25907171136</v>
       </c>
       <c r="S4">
-        <v>0.04120656742031489</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="T4">
-        <v>0.03423388346160009</v>
+        <v>0.08578923067523865</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2281945</v>
+        <v>0.1008186666666667</v>
       </c>
       <c r="H5">
-        <v>0.456389</v>
+        <v>0.302456</v>
       </c>
       <c r="I5">
-        <v>0.5214982275412701</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.4208173125685781</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.495057333333333</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N5">
-        <v>16.485172</v>
+        <v>0.162391</v>
       </c>
       <c r="O5">
-        <v>0.8161989011161211</v>
+        <v>0.01559539987035126</v>
       </c>
       <c r="P5">
-        <v>0.8403205285996808</v>
+        <v>0.01626435854882633</v>
       </c>
       <c r="Q5">
-        <v>1.253941860651333</v>
+        <v>0.005457348032888889</v>
       </c>
       <c r="R5">
-        <v>7.523651163908</v>
+        <v>0.049116132296</v>
       </c>
       <c r="S5">
-        <v>0.4256462802531895</v>
+        <v>0.01559539987035126</v>
       </c>
       <c r="T5">
-        <v>0.3536214265415247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6">
-        <v>0.2281945</v>
-      </c>
-      <c r="H6">
-        <v>0.456389</v>
-      </c>
-      <c r="I6">
-        <v>0.5214982275412701</v>
-      </c>
-      <c r="J6">
-        <v>0.4208173125685781</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.657666</v>
-      </c>
-      <c r="N6">
-        <v>1.972998</v>
-      </c>
-      <c r="O6">
-        <v>0.09768528951377062</v>
-      </c>
-      <c r="P6">
-        <v>0.1005722428790014</v>
-      </c>
-      <c r="Q6">
-        <v>0.150075764037</v>
-      </c>
-      <c r="R6">
-        <v>0.9004545842220001</v>
-      </c>
-      <c r="S6">
-        <v>0.05094270533828719</v>
-      </c>
-      <c r="T6">
-        <v>0.04232254096733568</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.2281945</v>
-      </c>
-      <c r="H7">
-        <v>0.456389</v>
-      </c>
-      <c r="I7">
-        <v>0.5214982275412701</v>
-      </c>
-      <c r="J7">
-        <v>0.4208173125685781</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.5797745</v>
-      </c>
-      <c r="N7">
-        <v>1.159549</v>
-      </c>
-      <c r="O7">
-        <v>0.08611580937010824</v>
-      </c>
-      <c r="P7">
-        <v>0.0591072285213179</v>
-      </c>
-      <c r="Q7">
-        <v>0.13230135214025</v>
-      </c>
-      <c r="R7">
-        <v>0.5292054085610001</v>
-      </c>
-      <c r="S7">
-        <v>0.04490924194979334</v>
-      </c>
-      <c r="T7">
-        <v>0.02487334505971781</v>
+        <v>0.01626435854882633</v>
       </c>
     </row>
   </sheetData>
